--- a/PDS-main/SS2 data sheet.xlsx
+++ b/PDS-main/SS2 data sheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7620" activeTab="4"/>
+    <workbookView windowWidth="14490" windowHeight="5415"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="430">
   <si>
     <t>RANK</t>
   </si>
@@ -1956,9 +1956,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2027,15 +2031,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -2363,2436 +2358,2436 @@
   <sheetPr/>
   <dimension ref="A1:AH23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.57142857142857" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.8571428571429" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.2857142857143" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.4285714285714" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11.5714285714286" style="16" customWidth="1"/>
-    <col min="6" max="6" width="19.5714285714286" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18.7142857142857" style="6" customWidth="1"/>
-    <col min="8" max="8" width="19" style="6" customWidth="1"/>
-    <col min="9" max="10" width="9.28571428571429" style="6" customWidth="1"/>
-    <col min="11" max="11" width="21.8571428571429" style="6" customWidth="1"/>
-    <col min="12" max="13" width="14.4285714285714" style="6" customWidth="1"/>
-    <col min="14" max="14" width="15.1428571428571" style="6" customWidth="1"/>
-    <col min="15" max="15" width="26.4285714285714" style="6" customWidth="1"/>
-    <col min="16" max="16" width="34.5714285714286" style="6" customWidth="1"/>
-    <col min="17" max="17" width="8.14285714285714" style="6" customWidth="1"/>
-    <col min="18" max="18" width="13.4285714285714" style="6" customWidth="1"/>
-    <col min="19" max="19" width="26.4285714285714" style="6" customWidth="1"/>
-    <col min="20" max="20" width="21.1428571428571" style="6" customWidth="1"/>
-    <col min="21" max="21" width="23.4285714285714" style="6" customWidth="1"/>
-    <col min="22" max="22" width="27.1428571428571" style="6" customWidth="1"/>
-    <col min="23" max="23" width="29.4285714285714" style="6" customWidth="1"/>
-    <col min="24" max="24" width="47.5714285714286" style="6" customWidth="1"/>
-    <col min="25" max="25" width="13.7142857142857" style="6" customWidth="1"/>
-    <col min="26" max="26" width="42" style="6" customWidth="1"/>
-    <col min="27" max="27" width="75.1428571428571" style="6" customWidth="1"/>
-    <col min="28" max="28" width="59.8571428571429" style="6" customWidth="1"/>
-    <col min="29" max="29" width="80" style="6" customWidth="1"/>
-    <col min="30" max="30" width="30.4285714285714" style="6" customWidth="1"/>
-    <col min="31" max="31" width="12.2857142857143" style="6" customWidth="1"/>
-    <col min="32" max="32" width="14" style="6" customWidth="1"/>
-    <col min="33" max="33" width="38" style="6" customWidth="1"/>
-    <col min="34" max="34" width="35.8571428571429" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="6.57142857142857" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.8571428571429" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.2857142857143" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.4285714285714" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.5714285714286" style="18" customWidth="1"/>
+    <col min="6" max="6" width="19.5714285714286" style="8" customWidth="1"/>
+    <col min="7" max="7" width="18.7142857142857" style="8" customWidth="1"/>
+    <col min="8" max="8" width="19" style="8" customWidth="1"/>
+    <col min="9" max="10" width="9.28571428571429" style="8" customWidth="1"/>
+    <col min="11" max="11" width="21.8571428571429" style="8" customWidth="1"/>
+    <col min="12" max="13" width="14.4285714285714" style="8" customWidth="1"/>
+    <col min="14" max="14" width="15.1428571428571" style="8" customWidth="1"/>
+    <col min="15" max="15" width="26.4285714285714" style="8" customWidth="1"/>
+    <col min="16" max="16" width="34.5714285714286" style="8" customWidth="1"/>
+    <col min="17" max="17" width="8.14285714285714" style="8" customWidth="1"/>
+    <col min="18" max="18" width="13.4285714285714" style="8" customWidth="1"/>
+    <col min="19" max="19" width="26.4285714285714" style="8" customWidth="1"/>
+    <col min="20" max="20" width="21.1428571428571" style="8" customWidth="1"/>
+    <col min="21" max="21" width="23.4285714285714" style="8" customWidth="1"/>
+    <col min="22" max="22" width="27.1428571428571" style="8" customWidth="1"/>
+    <col min="23" max="23" width="29.4285714285714" style="8" customWidth="1"/>
+    <col min="24" max="24" width="47.5714285714286" style="8" customWidth="1"/>
+    <col min="25" max="25" width="13.7142857142857" style="8" customWidth="1"/>
+    <col min="26" max="26" width="42" style="8" customWidth="1"/>
+    <col min="27" max="27" width="75.1428571428571" style="8" customWidth="1"/>
+    <col min="28" max="28" width="59.8571428571429" style="8" customWidth="1"/>
+    <col min="29" max="29" width="80" style="8" customWidth="1"/>
+    <col min="30" max="30" width="30.4285714285714" style="8" customWidth="1"/>
+    <col min="31" max="31" width="12.2857142857143" style="8" customWidth="1"/>
+    <col min="32" max="32" width="14" style="8" customWidth="1"/>
+    <col min="33" max="33" width="38" style="8" customWidth="1"/>
+    <col min="34" max="34" width="35.8571428571429" style="8" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="4" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" s="13" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A2" s="18" t="s">
+    <row r="2" s="15" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A2" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="22">
         <v>45664</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="18" t="s">
+      <c r="M2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="18" t="s">
+      <c r="Q2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="18" t="s">
+      <c r="R2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="18" t="s">
+      <c r="W2" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="18" t="s">
+      <c r="X2" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z2" s="18" t="s">
+      <c r="Y2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB2" s="18" t="s">
+      <c r="AA2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" s="18" t="s">
+      <c r="AC2" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" s="18" t="s">
+      <c r="AD2" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF2" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG2" s="18" t="s">
+      <c r="AE2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG2" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="AH2" s="18" t="s">
+      <c r="AH2" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" s="13" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A3" s="21" t="s">
+    <row r="3" s="15" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A3" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="24">
         <v>216092</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="25">
         <v>45337</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="23">
+      <c r="M3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="25">
         <v>31828</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="21" t="s">
+      <c r="P3" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="21" t="s">
+      <c r="Q3" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="21" t="s">
+      <c r="R3" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="21" t="s">
+      <c r="S3" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="21">
+      <c r="T3" s="23">
         <v>3</v>
       </c>
-      <c r="U3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="W3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z3" s="21" t="s">
+      <c r="U3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AA3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB3" s="21" t="s">
+      <c r="AA3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB3" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="AC3" s="21" t="s">
+      <c r="AC3" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="AD3" s="21" t="s">
+      <c r="AD3" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="AE3" s="29">
+      <c r="AE3" s="28">
         <v>0.72</v>
       </c>
-      <c r="AF3" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG3" s="21" t="s">
+      <c r="AF3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG3" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="AH3" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" s="13" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A4" s="18" t="s">
+      <c r="AH3" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" s="15" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A4" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="22">
         <v>44473</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L4" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="M4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="18" t="s">
+      <c r="M4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="O4" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="P4" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="18" t="s">
+      <c r="R4" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="S4" s="18" t="s">
+      <c r="S4" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="T4" s="18" t="s">
+      <c r="T4" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="U4" s="18" t="s">
+      <c r="U4" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="V4" s="18" t="s">
+      <c r="V4" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="W4" s="18" t="s">
+      <c r="W4" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="X4" s="18" t="s">
+      <c r="X4" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="Y4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="18" t="s">
+      <c r="Y4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="AA4" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB4" s="18" t="s">
+      <c r="AA4" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB4" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AC4" s="18" t="s">
+      <c r="AC4" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="AD4" s="18" t="s">
+      <c r="AD4" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="AE4" s="18" t="s">
+      <c r="AE4" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="AF4" s="18" t="s">
+      <c r="AF4" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="AG4" s="18" t="s">
+      <c r="AG4" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="AH4" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" s="13" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A5" s="18" t="s">
+      <c r="AH4" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" s="15" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A5" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="22">
         <v>44694</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="18" t="s">
+      <c r="K5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="M5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="18" t="s">
+      <c r="M5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="Q5" s="18" t="s">
+      <c r="Q5" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="18" t="s">
+      <c r="R5" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="18" t="s">
+      <c r="S5" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="T5" s="18" t="s">
+      <c r="T5" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="18" t="s">
+      <c r="U5" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="V5" s="18" t="s">
+      <c r="V5" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="W5" s="18" t="s">
+      <c r="W5" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="X5" s="18" t="s">
+      <c r="X5" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="Y5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z5" s="18" t="s">
+      <c r="Y5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="AA5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB5" s="18" t="s">
+      <c r="AA5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB5" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="AC5" s="18" t="s">
+      <c r="AC5" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="AD5" s="18" t="s">
+      <c r="AD5" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="AE5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF5" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG5" s="18" t="s">
+      <c r="AE5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG5" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="AH5" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" s="13" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A6" s="18" t="s">
+      <c r="AH5" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" s="15" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A6" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="18" t="s">
+      <c r="M6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="O6" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="Q6" s="18" t="s">
+      <c r="Q6" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="R6" s="18" t="s">
+      <c r="R6" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="18" t="s">
+      <c r="S6" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="T6" s="18" t="s">
+      <c r="T6" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="18" t="s">
+      <c r="U6" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="V6" s="18" t="s">
+      <c r="V6" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="W6" s="18" t="s">
+      <c r="W6" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="X6" s="18" t="s">
+      <c r="X6" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="Y6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z6" s="18" t="s">
+      <c r="Y6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="AA6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB6" s="18" t="s">
+      <c r="AA6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB6" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="AC6" s="18" t="s">
+      <c r="AC6" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="AD6" s="18" t="s">
+      <c r="AD6" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="AE6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG6" s="18" t="s">
+      <c r="AE6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF6" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG6" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="AH6" s="18" t="s">
+      <c r="AH6" s="20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:34">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="24">
         <v>237185</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="25">
         <v>45591</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="21" t="s">
+      <c r="I7" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="21" t="s">
+      <c r="J7" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="21" t="s">
+      <c r="K7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="21" t="s">
+      <c r="L7" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="M7" s="21" t="s">
+      <c r="M7" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="25">
         <v>33105</v>
       </c>
-      <c r="O7" s="21" t="s">
+      <c r="O7" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="P7" s="21" t="s">
+      <c r="P7" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="Q7" s="21" t="s">
+      <c r="Q7" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="R7" s="21" t="s">
+      <c r="R7" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="S7" s="21" t="s">
+      <c r="S7" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="T7" s="21">
+      <c r="T7" s="23">
         <v>5</v>
       </c>
-      <c r="U7" s="23">
+      <c r="U7" s="25">
         <v>41092</v>
       </c>
-      <c r="V7" s="23">
+      <c r="V7" s="25">
         <v>45366</v>
       </c>
-      <c r="W7" s="21" t="s">
+      <c r="W7" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="X7" s="21" t="s">
+      <c r="X7" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="Y7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z7" s="21" t="s">
+      <c r="Y7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AA7" s="21" t="s">
+      <c r="AA7" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AB7" s="21" t="s">
+      <c r="AB7" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="AC7" s="21" t="s">
+      <c r="AC7" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="AD7" s="21" t="s">
+      <c r="AD7" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="AE7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG7" s="21" t="s">
+      <c r="AE7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG7" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="AH7" s="21" t="s">
+      <c r="AH7" s="23" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="8" s="13" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A8" s="24" t="s">
+    <row r="8" s="15" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A8" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="G8" s="20">
+      <c r="G8" s="22">
         <v>45558</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="I8" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="24" t="s">
+      <c r="K8" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="24" t="s">
+      <c r="L8" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="M8" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="20">
+      <c r="M8" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="22">
         <v>32448</v>
       </c>
-      <c r="O8" s="24" t="s">
+      <c r="O8" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="P8" s="24" t="s">
+      <c r="P8" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="Q8" s="24" t="s">
+      <c r="Q8" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="R8" s="24" t="s">
+      <c r="R8" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="S8" s="24" t="s">
+      <c r="S8" s="26" t="s">
         <v>157</v>
       </c>
-      <c r="T8" s="24" t="s">
+      <c r="T8" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="U8" s="24" t="s">
+      <c r="U8" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="V8" s="24" t="s">
+      <c r="V8" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="W8" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="X8" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y8" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z8" s="24" t="s">
+      <c r="W8" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="X8" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y8" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z8" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="AA8" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB8" s="24" t="s">
+      <c r="AA8" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB8" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="AC8" s="24" t="s">
+      <c r="AC8" s="26" t="s">
         <v>162</v>
       </c>
-      <c r="AD8" s="24" t="s">
+      <c r="AD8" s="26" t="s">
         <v>163</v>
       </c>
-      <c r="AE8" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF8" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG8" s="24" t="s">
+      <c r="AE8" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF8" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG8" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="AH8" s="24" t="s">
+      <c r="AH8" s="26" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="9" s="13" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A9" s="18" t="s">
+    <row r="9" s="15" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A9" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="20">
+      <c r="G9" s="22">
         <v>44473</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="18" t="s">
+      <c r="K9" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="18" t="s">
+      <c r="L9" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="M9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="18" t="s">
+      <c r="M9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="O9" s="18" t="s">
+      <c r="O9" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="P9" s="18" t="s">
+      <c r="P9" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="Q9" s="18" t="s">
+      <c r="Q9" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="R9" s="18" t="s">
+      <c r="R9" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="S9" s="18" t="s">
+      <c r="S9" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="T9" s="18" t="s">
+      <c r="T9" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="U9" s="18" t="s">
+      <c r="U9" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="V9" s="18" t="s">
+      <c r="V9" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="W9" s="18" t="s">
+      <c r="W9" s="20" t="s">
         <v>176</v>
       </c>
-      <c r="X9" s="18" t="s">
+      <c r="X9" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="Y9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z9" s="18" t="s">
+      <c r="Y9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z9" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="AA9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB9" s="18" t="s">
+      <c r="AA9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB9" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="AC9" s="18" t="s">
+      <c r="AC9" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="AD9" s="18" t="s">
+      <c r="AD9" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="AE9" s="18" t="s">
+      <c r="AE9" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="AF9" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG9" s="18" t="s">
+      <c r="AF9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG9" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="AH9" s="18" t="s">
+      <c r="AH9" s="20" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" s="13" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A10" s="18" t="s">
+    <row r="10" s="15" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A10" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="20" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="22">
         <v>45555</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="18" t="s">
+      <c r="J10" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="18" t="s">
+      <c r="K10" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="20" t="s">
         <v>187</v>
       </c>
-      <c r="M10" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="18" t="s">
+      <c r="M10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="O10" s="18" t="s">
+      <c r="O10" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="P10" s="18" t="s">
+      <c r="P10" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="Q10" s="18" t="s">
+      <c r="Q10" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="R10" s="18" t="s">
+      <c r="R10" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="S10" s="18" t="s">
+      <c r="S10" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="T10" s="18" t="s">
+      <c r="T10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="U10" s="18" t="s">
+      <c r="U10" s="20" t="s">
         <v>191</v>
       </c>
-      <c r="V10" s="18" t="s">
+      <c r="V10" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="W10" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="X10" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y10" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z10" s="18" t="s">
+      <c r="W10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="X10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z10" s="20" t="s">
         <v>193</v>
       </c>
-      <c r="AA10" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB10" s="18" t="s">
+      <c r="AA10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB10" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="AC10" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD10" s="18" t="s">
+      <c r="AC10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD10" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="AE10" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF10" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG10" s="18" t="s">
+      <c r="AE10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF10" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG10" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="AH10" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" s="13" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A11" s="18" t="s">
+      <c r="AH10" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" s="15" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A11" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="20" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="20" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="20" t="s">
         <v>198</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E11" s="21" t="s">
         <v>199</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="22">
         <v>45419</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="18" t="s">
+      <c r="I11" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="18" t="s">
+      <c r="J11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="18" t="s">
+      <c r="K11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="20" t="s">
         <v>200</v>
       </c>
-      <c r="M11" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" s="18" t="s">
+      <c r="M11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="20" t="s">
         <v>201</v>
       </c>
-      <c r="O11" s="18" t="s">
+      <c r="O11" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="P11" s="18" t="s">
+      <c r="P11" s="20" t="s">
         <v>203</v>
       </c>
-      <c r="Q11" s="18" t="s">
+      <c r="Q11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="R11" s="18" t="s">
+      <c r="R11" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="S11" s="18" t="s">
+      <c r="S11" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="T11" s="18" t="s">
+      <c r="T11" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="U11" s="18" t="s">
+      <c r="U11" s="20" t="s">
         <v>204</v>
       </c>
-      <c r="V11" s="18" t="s">
+      <c r="V11" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="W11" s="18" t="s">
+      <c r="W11" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="X11" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y11" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z11" s="18" t="s">
+      <c r="X11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z11" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="AA11" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB11" s="18" t="s">
+      <c r="AA11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB11" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="AC11" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD11" s="18" t="s">
+      <c r="AC11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD11" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="AE11" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF11" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG11" s="18" t="s">
+      <c r="AE11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG11" s="20" t="s">
         <v>208</v>
       </c>
-      <c r="AH11" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" s="14" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A12" s="18" t="s">
+      <c r="AH11" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" s="16" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A12" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="20" t="s">
         <v>209</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="20" t="s">
         <v>210</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E12" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="18" t="s">
+      <c r="G12" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="18" t="s">
+      <c r="I12" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="18" t="s">
+      <c r="J12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="18" t="s">
+      <c r="K12" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="20" t="s">
         <v>214</v>
       </c>
-      <c r="M12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12" s="18" t="s">
+      <c r="M12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="O12" s="18" t="s">
+      <c r="O12" s="20" t="s">
         <v>216</v>
       </c>
-      <c r="P12" s="18" t="s">
+      <c r="P12" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="Q12" s="18" t="s">
+      <c r="Q12" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="R12" s="18" t="s">
+      <c r="R12" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="S12" s="18" t="s">
+      <c r="S12" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="T12" s="18" t="s">
+      <c r="T12" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="18" t="s">
+      <c r="U12" s="20" t="s">
         <v>220</v>
       </c>
-      <c r="V12" s="18" t="s">
+      <c r="V12" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="W12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="X12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z12" s="18" t="s">
+      <c r="W12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="X12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z12" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="AA12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB12" s="18" t="s">
+      <c r="AA12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB12" s="20" t="s">
         <v>194</v>
       </c>
-      <c r="AC12" s="18" t="s">
+      <c r="AC12" s="20" t="s">
         <v>223</v>
       </c>
-      <c r="AD12" s="18" t="s">
+      <c r="AD12" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="AE12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG12" s="18" t="s">
+      <c r="AE12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF12" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG12" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="AH12" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" s="14" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A13" s="21" t="s">
+      <c r="AH12" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" s="16" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A13" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="23" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="E13" s="22">
+      <c r="E13" s="24">
         <v>265009</v>
       </c>
-      <c r="F13" s="21" t="s">
+      <c r="F13" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="25">
         <v>44013</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="21" t="s">
+      <c r="I13" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="21" t="s">
+      <c r="K13" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="21" t="s">
+      <c r="L13" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="M13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="N13" s="23">
+      <c r="M13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="25">
         <v>31392</v>
       </c>
-      <c r="O13" s="21" t="s">
+      <c r="O13" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="P13" s="21" t="s">
+      <c r="P13" s="23" t="s">
         <v>232</v>
       </c>
-      <c r="Q13" s="21" t="s">
+      <c r="Q13" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="21" t="s">
+      <c r="R13" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="S13" s="21" t="s">
+      <c r="S13" s="23" t="s">
         <v>233</v>
       </c>
-      <c r="T13" s="21">
+      <c r="T13" s="23">
         <v>3</v>
       </c>
-      <c r="U13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="V13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="W13" s="21" t="s">
+      <c r="U13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W13" s="23" t="s">
         <v>234</v>
       </c>
-      <c r="X13" s="21" t="s">
+      <c r="X13" s="23" t="s">
         <v>235</v>
       </c>
-      <c r="Y13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z13" s="21" t="s">
+      <c r="Y13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z13" s="23" t="s">
         <v>236</v>
       </c>
-      <c r="AA13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG13" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH13" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" s="14" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A14" s="21" t="s">
+      <c r="AA13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG13" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH13" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" s="16" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A14" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="24">
         <v>261325</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="G14" s="23">
+      <c r="G14" s="25">
         <v>44013</v>
       </c>
-      <c r="H14" s="21" t="s">
+      <c r="H14" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="21" t="s">
+      <c r="L14" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="M14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="N14" s="23">
+      <c r="M14" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="25">
         <v>33467</v>
       </c>
-      <c r="O14" s="21" t="s">
+      <c r="O14" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="P14" s="23" t="s">
         <v>243</v>
       </c>
-      <c r="Q14" s="21" t="s">
+      <c r="Q14" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="R14" s="21" t="s">
+      <c r="R14" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="S14" s="21" t="s">
+      <c r="S14" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="T14" s="21">
+      <c r="T14" s="23">
         <v>2</v>
       </c>
-      <c r="U14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="V14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="W14" s="21" t="s">
+      <c r="U14" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V14" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W14" s="23" t="s">
         <v>244</v>
       </c>
-      <c r="X14" s="21" t="s">
+      <c r="X14" s="23" t="s">
         <v>245</v>
       </c>
-      <c r="Y14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z14" s="21" t="s">
+      <c r="Y14" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z14" s="23" t="s">
         <v>246</v>
       </c>
-      <c r="AA14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG14" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH14" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" s="15" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A15" s="21" t="s">
+      <c r="AA14" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB14" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC14" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD14" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE14" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF14" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG14" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH14" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" s="17" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A15" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="23" t="s">
         <v>247</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="E15" s="22">
+      <c r="E15" s="24">
         <v>296796</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="25">
         <v>45660</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="I15" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="21" t="s">
+      <c r="J15" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="21" t="s">
+      <c r="L15" s="23" t="s">
         <v>251</v>
       </c>
-      <c r="M15" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" s="23">
+      <c r="M15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="25">
         <v>34355</v>
       </c>
-      <c r="O15" s="21" t="s">
+      <c r="O15" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="P15" s="21" t="s">
+      <c r="P15" s="23" t="s">
         <v>253</v>
       </c>
-      <c r="Q15" s="21" t="s">
+      <c r="Q15" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="R15" s="21" t="s">
+      <c r="R15" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="S15" s="21" t="s">
+      <c r="S15" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="T15" s="21">
+      <c r="T15" s="23">
         <v>2</v>
       </c>
-      <c r="U15" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="V15" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="W15" s="21" t="s">
+      <c r="U15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W15" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="X15" s="21" t="s">
+      <c r="X15" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="Y15" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z15" s="21" t="s">
+      <c r="Y15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z15" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AA15" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB15" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC15" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD15" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE15" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF15" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG15" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH15" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" s="15" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A16" s="24" t="s">
+      <c r="AA15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG15" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH15" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" s="17" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A16" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="24" t="s">
+      <c r="B16" s="26" t="s">
         <v>257</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="26" t="s">
         <v>258</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="26" t="s">
         <v>259</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="G16" s="20">
+      <c r="G16" s="22">
         <v>45332</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="24" t="s">
+      <c r="I16" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="24" t="s">
+      <c r="L16" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="M16" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="N16" s="20">
+      <c r="M16" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="22">
         <v>33938</v>
       </c>
-      <c r="O16" s="24" t="s">
+      <c r="O16" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="P16" s="24" t="s">
+      <c r="P16" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="Q16" s="24" t="s">
+      <c r="Q16" s="26" t="s">
         <v>254</v>
       </c>
-      <c r="R16" s="24" t="s">
+      <c r="R16" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="S16" s="24" t="s">
+      <c r="S16" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="T16" s="24" t="s">
+      <c r="T16" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="U16" s="24" t="s">
+      <c r="U16" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="V16" s="24" t="s">
+      <c r="V16" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="W16" s="24" t="s">
+      <c r="W16" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="X16" s="24" t="s">
+      <c r="X16" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="Y16" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z16" s="24" t="s">
+      <c r="Y16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z16" s="26" t="s">
         <v>267</v>
       </c>
-      <c r="AA16" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB16" s="24" t="s">
+      <c r="AA16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB16" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="AC16" s="24" t="s">
+      <c r="AC16" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="AD16" s="24" t="s">
+      <c r="AD16" s="26" t="s">
         <v>270</v>
       </c>
-      <c r="AE16" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF16" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG16" s="24" t="s">
+      <c r="AE16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF16" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG16" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="AH16" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" s="15" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A17" s="18" t="s">
+      <c r="AH16" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" s="17" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A17" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="20" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="20" t="s">
         <v>273</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="20" t="s">
         <v>274</v>
       </c>
-      <c r="E17" s="19" t="s">
+      <c r="E17" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="F17" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="20">
+      <c r="F17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="22">
         <v>43780</v>
       </c>
-      <c r="H17" s="18" t="s">
+      <c r="H17" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K17" s="18" t="s">
+      <c r="K17" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="L17" s="20" t="s">
         <v>276</v>
       </c>
-      <c r="M17" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="18" t="s">
+      <c r="M17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="O17" s="18" t="s">
+      <c r="O17" s="20" t="s">
         <v>278</v>
       </c>
-      <c r="P17" s="18" t="s">
+      <c r="P17" s="20" t="s">
         <v>279</v>
       </c>
-      <c r="Q17" s="18" t="s">
+      <c r="Q17" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="R17" s="18" t="s">
+      <c r="R17" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="S17" s="18" t="s">
+      <c r="S17" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="T17" s="18" t="s">
+      <c r="T17" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="U17" s="18" t="s">
+      <c r="U17" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="V17" s="18" t="s">
+      <c r="V17" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="W17" s="18" t="s">
+      <c r="W17" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="X17" s="18" t="s">
+      <c r="X17" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="Y17" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z17" s="18" t="s">
+      <c r="Y17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z17" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="AA17" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB17" s="18" t="s">
+      <c r="AA17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB17" s="20" t="s">
         <v>283</v>
       </c>
-      <c r="AC17" s="18" t="s">
+      <c r="AC17" s="20" t="s">
         <v>284</v>
       </c>
-      <c r="AD17" s="18" t="s">
+      <c r="AD17" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="AE17" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF17" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG17" s="18" t="s">
+      <c r="AE17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG17" s="20" t="s">
         <v>285</v>
       </c>
-      <c r="AH17" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" s="15" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A18" s="26" t="s">
+      <c r="AH17" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" s="17" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A18" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="23" t="s">
         <v>287</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="24">
         <v>344721</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="25">
         <v>45650</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="H18" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="26" t="s">
+      <c r="I18" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="26" t="s">
+      <c r="J18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K18" s="26" t="s">
+      <c r="K18" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="26" t="s">
+      <c r="L18" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="M18" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="N18" s="28">
+      <c r="M18" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="25">
         <v>35662</v>
       </c>
-      <c r="O18" s="26" t="s">
+      <c r="O18" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="P18" s="26" t="s">
+      <c r="P18" s="23" t="s">
         <v>291</v>
       </c>
-      <c r="Q18" s="26" t="s">
+      <c r="Q18" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="R18" s="26" t="s">
+      <c r="R18" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="S18" s="26" t="s">
+      <c r="S18" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="T18" s="26">
+      <c r="T18" s="23">
         <v>1</v>
       </c>
-      <c r="U18" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="V18" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="W18" s="26" t="s">
+      <c r="U18" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V18" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W18" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="X18" s="26" t="s">
+      <c r="X18" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="Y18" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z18" s="26" t="s">
+      <c r="Y18" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z18" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AA18" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB18" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC18" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD18" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE18" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF18" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG18" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH18" s="26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" s="15" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A19" s="21" t="s">
+      <c r="AA18" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB18" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC18" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD18" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE18" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF18" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG18" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH18" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" s="17" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A19" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="23" t="s">
         <v>166</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="E19" s="22">
+      <c r="E19" s="24">
         <v>330291</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="G19" s="23">
+      <c r="G19" s="25">
         <v>45660</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="21" t="s">
+      <c r="I19" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="21" t="s">
+      <c r="J19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="21" t="s">
+      <c r="L19" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="M19" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="N19" s="23">
+      <c r="M19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19" s="25">
         <v>34669</v>
       </c>
-      <c r="O19" s="21" t="s">
+      <c r="O19" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="P19" s="21" t="s">
+      <c r="P19" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="Q19" s="21" t="s">
+      <c r="Q19" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="R19" s="21" t="s">
+      <c r="R19" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="S19" s="21" t="s">
+      <c r="S19" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="T19" s="21">
+      <c r="T19" s="23">
         <v>2</v>
       </c>
-      <c r="U19" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="V19" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="W19" s="21" t="s">
+      <c r="U19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W19" s="23" t="s">
         <v>255</v>
       </c>
-      <c r="X19" s="21" t="s">
+      <c r="X19" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="Y19" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z19" s="21" t="s">
+      <c r="Y19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z19" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AA19" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB19" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC19" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD19" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE19" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF19" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG19" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH19" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" s="15" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A20" s="21" t="s">
+      <c r="AA19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH19" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" s="17" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A20" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="23" t="s">
         <v>300</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E20" s="24">
         <v>375895</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="23">
+      <c r="G20" s="25">
         <v>45496</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="21" t="s">
+      <c r="J20" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K20" s="21" t="s">
+      <c r="K20" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="21" t="s">
+      <c r="L20" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="M20" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="N20" s="23">
+      <c r="M20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="25">
         <v>34684</v>
       </c>
-      <c r="O20" s="21" t="s">
+      <c r="O20" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="P20" s="21" t="s">
+      <c r="P20" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="Q20" s="21" t="s">
+      <c r="Q20" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="R20" s="21" t="s">
+      <c r="R20" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="S20" s="21" t="s">
+      <c r="S20" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="T20" s="21">
+      <c r="T20" s="23">
         <v>2</v>
       </c>
-      <c r="U20" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="V20" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="W20" s="21" t="s">
+      <c r="U20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W20" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="X20" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y20" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z20" s="21" t="s">
+      <c r="X20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z20" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AA20" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB20" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC20" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD20" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE20" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF20" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG20" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH20" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" s="15" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A21" s="21" t="s">
+      <c r="AA20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH20" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" s="17" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A21" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="23" t="s">
         <v>307</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="E21" s="22">
+      <c r="E21" s="24">
         <v>363702</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="G21" s="23">
+      <c r="G21" s="25">
         <v>44969</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H21" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I21" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J21" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="K21" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="L21" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="M21" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="N21" s="23">
+      <c r="M21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" s="25">
         <v>33899</v>
       </c>
-      <c r="O21" s="21" t="s">
+      <c r="O21" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="P21" s="21" t="s">
+      <c r="P21" s="23" t="s">
         <v>313</v>
       </c>
-      <c r="Q21" s="21" t="s">
+      <c r="Q21" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="R21" s="21" t="s">
+      <c r="R21" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="S21" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="T21" s="21">
+      <c r="S21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="T21" s="23">
         <v>1</v>
       </c>
-      <c r="U21" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="V21" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="W21" s="21" t="s">
+      <c r="U21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W21" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="X21" s="21" t="s">
+      <c r="X21" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="Y21" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z21" s="21" t="s">
+      <c r="Y21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z21" s="23" t="s">
         <v>316</v>
       </c>
-      <c r="AA21" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB21" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC21" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD21" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE21" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF21" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG21" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH21" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" s="15" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A22" s="21" t="s">
+      <c r="AA21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH21" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" s="17" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A22" s="23" t="s">
         <v>286</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="23" t="s">
         <v>317</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="23" t="s">
         <v>318</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="23" t="s">
         <v>319</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E22" s="24">
         <v>324171</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="G22" s="23">
+      <c r="G22" s="25">
         <v>45586</v>
       </c>
-      <c r="H22" s="21" t="s">
+      <c r="H22" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="21" t="s">
+      <c r="I22" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="21" t="s">
+      <c r="J22" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K22" s="21" t="s">
+      <c r="K22" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="21" t="s">
+      <c r="L22" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="M22" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="N22" s="23">
+      <c r="M22" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="25">
         <v>32939</v>
       </c>
-      <c r="O22" s="21" t="s">
+      <c r="O22" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="P22" s="21" t="s">
+      <c r="P22" s="23" t="s">
         <v>321</v>
       </c>
-      <c r="Q22" s="21" t="s">
+      <c r="Q22" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="R22" s="21" t="s">
+      <c r="R22" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="S22" s="21" t="s">
+      <c r="S22" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="T22" s="21">
+      <c r="T22" s="23">
         <v>2</v>
       </c>
-      <c r="U22" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="V22" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="W22" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="X22" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y22" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z22" s="21" t="s">
+      <c r="U22" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="V22" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="W22" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="X22" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y22" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z22" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="AA22" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB22" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC22" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD22" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE22" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF22" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG22" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH22" s="21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" s="15" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A23" s="24" t="s">
+      <c r="AA22" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB22" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC22" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD22" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE22" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF22" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG22" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH22" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" s="17" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A23" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="F23" s="24" t="s">
+      <c r="F23" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="22">
         <v>45513</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="K23" s="24" t="s">
+      <c r="K23" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="L23" s="24" t="s">
+      <c r="L23" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="M23" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="20">
+      <c r="M23" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="22">
         <v>33314</v>
       </c>
-      <c r="O23" s="24" t="s">
+      <c r="O23" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="P23" s="24" t="s">
+      <c r="P23" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="Q23" s="24" t="s">
+      <c r="Q23" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="R23" s="24" t="s">
+      <c r="R23" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="S23" s="24" t="s">
+      <c r="S23" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="T23" s="24" t="s">
+      <c r="T23" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="U23" s="24" t="s">
+      <c r="U23" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="V23" s="24" t="s">
+      <c r="V23" s="26" t="s">
         <v>330</v>
       </c>
-      <c r="W23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="X23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z23" s="24" t="s">
+      <c r="W23" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="X23" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y23" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z23" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="AA23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB23" s="24" t="s">
+      <c r="AA23" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB23" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="AC23" s="24" t="s">
+      <c r="AC23" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="AD23" s="24" t="s">
+      <c r="AD23" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="AE23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF23" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG23" s="24" t="s">
+      <c r="AE23" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF23" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG23" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="AH23" s="21" t="s">
+      <c r="AH23" s="23" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4819,2430 +4814,2430 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.57142857142857" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.8571428571429" style="6" customWidth="1"/>
-    <col min="3" max="3" width="19.2857142857143" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.4285714285714" style="6" customWidth="1"/>
-    <col min="5" max="5" width="11.5714285714286" style="6" customWidth="1"/>
-    <col min="6" max="6" width="19.5714285714286" style="6" customWidth="1"/>
-    <col min="7" max="7" width="18.7142857142857" style="6" customWidth="1"/>
-    <col min="8" max="8" width="19" style="6" customWidth="1"/>
-    <col min="9" max="10" width="9.28571428571429" style="6" customWidth="1"/>
-    <col min="11" max="11" width="21.8571428571429" style="6" customWidth="1"/>
-    <col min="12" max="13" width="14.4285714285714" style="6" customWidth="1"/>
-    <col min="14" max="14" width="15.1428571428571" style="6" customWidth="1"/>
-    <col min="15" max="15" width="26.4285714285714" style="6" customWidth="1"/>
-    <col min="16" max="16" width="34.5714285714286" style="6" customWidth="1"/>
-    <col min="17" max="17" width="8.14285714285714" style="6" customWidth="1"/>
-    <col min="18" max="18" width="13.4285714285714" style="6" customWidth="1"/>
-    <col min="19" max="19" width="26.4285714285714" style="6" customWidth="1"/>
-    <col min="20" max="20" width="21.1428571428571" style="6" customWidth="1"/>
-    <col min="21" max="21" width="23.4285714285714" style="6" customWidth="1"/>
-    <col min="22" max="22" width="27.1428571428571" style="6" customWidth="1"/>
-    <col min="23" max="23" width="29.4285714285714" style="6" customWidth="1"/>
-    <col min="24" max="24" width="47.5714285714286" style="6" customWidth="1"/>
-    <col min="25" max="25" width="13.7142857142857" style="6" customWidth="1"/>
-    <col min="26" max="26" width="42" style="6" customWidth="1"/>
-    <col min="27" max="27" width="75.1428571428571" style="6" customWidth="1"/>
-    <col min="28" max="28" width="59.8571428571429" style="6" customWidth="1"/>
-    <col min="29" max="29" width="80" style="6" customWidth="1"/>
-    <col min="30" max="30" width="30.4285714285714" style="6" customWidth="1"/>
-    <col min="31" max="31" width="12.2857142857143" style="6" customWidth="1"/>
-    <col min="32" max="32" width="14" style="6" customWidth="1"/>
-    <col min="33" max="33" width="38" style="6" customWidth="1"/>
-    <col min="34" max="34" width="35.8571428571429" style="6" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="6.57142857142857" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.8571428571429" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.2857142857143" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.4285714285714" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.5714285714286" style="8" customWidth="1"/>
+    <col min="6" max="6" width="19.5714285714286" style="8" customWidth="1"/>
+    <col min="7" max="7" width="18.7142857142857" style="8" customWidth="1"/>
+    <col min="8" max="8" width="19" style="8" customWidth="1"/>
+    <col min="9" max="10" width="9.28571428571429" style="8" customWidth="1"/>
+    <col min="11" max="11" width="21.8571428571429" style="8" customWidth="1"/>
+    <col min="12" max="13" width="14.4285714285714" style="8" customWidth="1"/>
+    <col min="14" max="14" width="15.1428571428571" style="8" customWidth="1"/>
+    <col min="15" max="15" width="26.4285714285714" style="8" customWidth="1"/>
+    <col min="16" max="16" width="34.5714285714286" style="8" customWidth="1"/>
+    <col min="17" max="17" width="8.14285714285714" style="8" customWidth="1"/>
+    <col min="18" max="18" width="13.4285714285714" style="8" customWidth="1"/>
+    <col min="19" max="19" width="26.4285714285714" style="8" customWidth="1"/>
+    <col min="20" max="20" width="21.1428571428571" style="8" customWidth="1"/>
+    <col min="21" max="21" width="23.4285714285714" style="8" customWidth="1"/>
+    <col min="22" max="22" width="27.1428571428571" style="8" customWidth="1"/>
+    <col min="23" max="23" width="29.4285714285714" style="8" customWidth="1"/>
+    <col min="24" max="24" width="47.5714285714286" style="8" customWidth="1"/>
+    <col min="25" max="25" width="13.7142857142857" style="8" customWidth="1"/>
+    <col min="26" max="26" width="42" style="8" customWidth="1"/>
+    <col min="27" max="27" width="75.1428571428571" style="8" customWidth="1"/>
+    <col min="28" max="28" width="59.8571428571429" style="8" customWidth="1"/>
+    <col min="29" max="29" width="80" style="8" customWidth="1"/>
+    <col min="30" max="30" width="30.4285714285714" style="8" customWidth="1"/>
+    <col min="31" max="31" width="12.2857142857143" style="8" customWidth="1"/>
+    <col min="32" max="32" width="14" style="8" customWidth="1"/>
+    <col min="33" max="33" width="38" style="8" customWidth="1"/>
+    <col min="34" max="34" width="35.8571428571429" style="8" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="4" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AA1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AD1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AE1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" s="3" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A2" s="7" t="s">
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A2" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="10">
         <v>45664</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="7" t="s">
+      <c r="M2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="P2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="Q2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="R2" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="7" t="s">
+      <c r="S2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="7" t="s">
+      <c r="T2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="U2" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="X2" s="7" t="s">
+      <c r="X2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="Y2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z2" s="7" t="s">
+      <c r="Y2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB2" s="7" t="s">
+      <c r="AA2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AC2" s="7" t="s">
+      <c r="AC2" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="AD2" s="7" t="s">
+      <c r="AD2" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="AE2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AE2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AH2" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A3" s="9" t="s">
+    <row r="3" s="5" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="11">
         <v>216092</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="12">
         <v>45337</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N3" s="10">
+      <c r="M3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="12">
         <v>31828</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="11">
         <v>3</v>
       </c>
-      <c r="U3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="W3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="X3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z3" s="9" t="s">
+      <c r="U3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="X3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z3" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AA3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AA3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB3" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AC3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AD3" s="9" t="s">
+      <c r="AD3" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AE3" s="12">
+      <c r="AE3" s="14">
         <v>0.72</v>
       </c>
-      <c r="AF3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG3" s="9" t="s">
+      <c r="AF3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AH3" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A4" s="7" t="s">
+      <c r="AH3" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" s="5" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A4" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="10">
         <v>44473</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="7" t="s">
+      <c r="M4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="O4" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="R4" s="7" t="s">
+      <c r="R4" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="S4" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="T4" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="V4" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="W4" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="X4" s="7" t="s">
+      <c r="X4" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="Y4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="7" t="s">
+      <c r="Y4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z4" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AA4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB4" s="7" t="s">
+      <c r="AA4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB4" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AC4" s="7" t="s">
+      <c r="AC4" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AD4" s="7" t="s">
+      <c r="AD4" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AE4" s="7" t="s">
+      <c r="AE4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AF4" s="7" t="s">
+      <c r="AF4" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AG4" s="7" t="s">
+      <c r="AG4" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AH4" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A5" s="7" t="s">
+      <c r="AH4" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" s="5" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A5" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="10">
         <v>44694</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="M5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="7" t="s">
+      <c r="M5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="T5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="V5" s="7" t="s">
+      <c r="V5" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="W5" s="7" t="s">
+      <c r="W5" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="X5" s="7" t="s">
+      <c r="X5" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="Y5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z5" s="7" t="s">
+      <c r="Y5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z5" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AA5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB5" s="7" t="s">
+      <c r="AA5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB5" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AC5" s="7" t="s">
+      <c r="AC5" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="AD5" s="7" t="s">
+      <c r="AD5" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="AE5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG5" s="7" t="s">
+      <c r="AE5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG5" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="AH5" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A6" s="7" t="s">
+      <c r="AH5" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" s="5" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="K6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="7" t="s">
+      <c r="L6" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="M6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="7" t="s">
+      <c r="M6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="7" t="s">
+      <c r="S6" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="T6" s="7" t="s">
+      <c r="T6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="7" t="s">
+      <c r="U6" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="V6" s="7" t="s">
+      <c r="V6" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="W6" s="7" t="s">
+      <c r="W6" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="X6" s="7" t="s">
+      <c r="X6" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="Y6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z6" s="7" t="s">
+      <c r="Y6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z6" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AA6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB6" s="7" t="s">
+      <c r="AA6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB6" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="AC6" s="7" t="s">
+      <c r="AC6" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="AD6" s="7" t="s">
+      <c r="AD6" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="AE6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF6" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG6" s="7" t="s">
+      <c r="AE6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG6" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="AH6" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" s="3" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A7" s="9" t="s">
+      <c r="AH6" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" s="5" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A7" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="11">
         <v>237185</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="12">
         <v>45591</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="N7" s="10">
+      <c r="N7" s="12">
         <v>33105</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="S7" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="11">
         <v>5</v>
       </c>
-      <c r="U7" s="10">
+      <c r="U7" s="12">
         <v>41092</v>
       </c>
-      <c r="V7" s="10">
+      <c r="V7" s="12">
         <v>45366</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="W7" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="X7" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="Y7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z7" s="9" t="s">
+      <c r="Y7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AA7" s="9" t="s">
+      <c r="AA7" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="AB7" s="9" t="s">
+      <c r="AB7" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="AC7" s="9" t="s">
+      <c r="AC7" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="AD7" s="9" t="s">
+      <c r="AD7" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="AE7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG7" s="9" t="s">
+      <c r="AE7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG7" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="AH7" s="9" t="s">
+      <c r="AH7" s="11" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A8" s="11" t="s">
+    <row r="8" s="5" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A8" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="10">
         <v>45558</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="11" t="s">
+      <c r="I8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="M8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N8" s="8">
+      <c r="M8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="10">
         <v>32448</v>
       </c>
-      <c r="O8" s="11" t="s">
+      <c r="O8" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="Q8" s="11" t="s">
+      <c r="Q8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="S8" s="11" t="s">
+      <c r="S8" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="T8" s="11" t="s">
+      <c r="T8" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="U8" s="11" t="s">
+      <c r="U8" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="V8" s="11" t="s">
+      <c r="V8" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="W8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="X8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z8" s="11" t="s">
+      <c r="W8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z8" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="AA8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB8" s="11" t="s">
+      <c r="AA8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB8" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="AC8" s="11" t="s">
+      <c r="AC8" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="AD8" s="11" t="s">
+      <c r="AD8" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="AE8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF8" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG8" s="11" t="s">
+      <c r="AE8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG8" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="AH8" s="11" t="s">
+      <c r="AH8" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A9" s="7" t="s">
+    <row r="9" s="5" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A9" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="10">
         <v>44473</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="7" t="s">
+      <c r="L9" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="M9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N9" s="7" t="s">
+      <c r="M9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N9" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="O9" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="P9" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="Q9" s="7" t="s">
+      <c r="Q9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="R9" s="7" t="s">
+      <c r="R9" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="S9" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="T9" s="7" t="s">
+      <c r="T9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U9" s="7" t="s">
+      <c r="U9" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="V9" s="7" t="s">
+      <c r="V9" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="W9" s="7" t="s">
+      <c r="W9" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="X9" s="7" t="s">
+      <c r="X9" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="Y9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z9" s="7" t="s">
+      <c r="Y9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z9" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="AA9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB9" s="7" t="s">
+      <c r="AA9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB9" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="AC9" s="7" t="s">
+      <c r="AC9" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="AD9" s="7" t="s">
+      <c r="AD9" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="AE9" s="7" t="s">
+      <c r="AE9" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="AF9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG9" s="7" t="s">
+      <c r="AF9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG9" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="AH9" s="7" t="s">
+      <c r="AH9" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A10" s="7" t="s">
+    <row r="10" s="5" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A10" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="10">
         <v>45555</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="M10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="7" t="s">
+      <c r="M10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="O10" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="P10" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="Q10" s="7" t="s">
+      <c r="Q10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="R10" s="7" t="s">
+      <c r="R10" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="S10" s="7" t="s">
+      <c r="S10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="T10" s="7" t="s">
+      <c r="T10" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="U10" s="7" t="s">
+      <c r="U10" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="V10" s="7" t="s">
+      <c r="V10" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="W10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="X10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z10" s="7" t="s">
+      <c r="W10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="X10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z10" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="AA10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB10" s="7" t="s">
+      <c r="AA10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB10" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="AC10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD10" s="7" t="s">
+      <c r="AC10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD10" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="AE10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF10" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG10" s="7" t="s">
+      <c r="AE10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF10" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG10" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="AH10" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A11" s="7" t="s">
+      <c r="AH10" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" s="5" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A11" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="10">
         <v>45419</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="L11" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="M11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" s="7" t="s">
+      <c r="M11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="P11" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="R11" s="7" t="s">
+      <c r="R11" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="S11" s="7" t="s">
+      <c r="S11" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="T11" s="7" t="s">
+      <c r="T11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U11" s="7" t="s">
+      <c r="U11" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="V11" s="7" t="s">
+      <c r="V11" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="W11" s="7" t="s">
+      <c r="W11" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="X11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z11" s="7" t="s">
+      <c r="X11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z11" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="AA11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB11" s="7" t="s">
+      <c r="AA11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB11" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="AC11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD11" s="7" t="s">
+      <c r="AC11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD11" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="AE11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG11" s="7" t="s">
+      <c r="AE11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF11" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG11" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="AH11" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" s="4" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A12" s="7" t="s">
+      <c r="AH11" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" s="6" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A12" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="M12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12" s="7" t="s">
+      <c r="M12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="O12" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="P12" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="R12" s="7" t="s">
+      <c r="R12" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="S12" s="7" t="s">
+      <c r="S12" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="T12" s="7" t="s">
+      <c r="T12" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U12" s="7" t="s">
+      <c r="U12" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="V12" s="7" t="s">
+      <c r="V12" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="W12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="X12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z12" s="7" t="s">
+      <c r="W12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z12" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="AA12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB12" s="7" t="s">
+      <c r="AA12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB12" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="AC12" s="7" t="s">
+      <c r="AC12" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="AD12" s="7" t="s">
+      <c r="AD12" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="AE12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF12" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG12" s="7" t="s">
+      <c r="AE12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG12" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="AH12" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" s="4" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A13" s="9" t="s">
+      <c r="AH12" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" s="6" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A13" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="11">
         <v>265009</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="12">
         <v>44013</v>
       </c>
-      <c r="H13" s="9" t="s">
+      <c r="H13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J13" s="9" t="s">
+      <c r="J13" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="M13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N13" s="10">
+      <c r="M13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="12">
         <v>31392</v>
       </c>
-      <c r="O13" s="9" t="s">
+      <c r="O13" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="P13" s="9" t="s">
+      <c r="P13" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="Q13" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="R13" s="9" t="s">
+      <c r="R13" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="S13" s="9" t="s">
+      <c r="S13" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="T13" s="9">
+      <c r="T13" s="11">
         <v>3</v>
       </c>
-      <c r="U13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="W13" s="9" t="s">
+      <c r="U13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W13" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="X13" s="9" t="s">
+      <c r="X13" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="Y13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z13" s="9" t="s">
+      <c r="Y13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z13" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="AA13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG13" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH13" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" s="4" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A14" s="9" t="s">
+      <c r="AA13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG13" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH13" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" s="6" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A14" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="11">
         <v>261325</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="12">
         <v>44013</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="H14" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="J14" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="M14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N14" s="10">
+      <c r="M14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="12">
         <v>33467</v>
       </c>
-      <c r="O14" s="9" t="s">
+      <c r="O14" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="P14" s="9" t="s">
+      <c r="P14" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="R14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="S14" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="T14" s="9">
+      <c r="T14" s="11">
         <v>2</v>
       </c>
-      <c r="U14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="W14" s="9" t="s">
+      <c r="U14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W14" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="X14" s="9" t="s">
+      <c r="X14" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="Y14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z14" s="9" t="s">
+      <c r="Y14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z14" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="AA14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH14" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" s="5" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A15" s="9" t="s">
+      <c r="AA14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG14" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH14" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" s="7" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A15" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="11">
         <v>296796</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="12">
         <v>45660</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="9" t="s">
+      <c r="J15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="M15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N15" s="10">
+      <c r="M15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N15" s="12">
         <v>34355</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="O15" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="P15" s="9" t="s">
+      <c r="P15" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="Q15" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="R15" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="S15" s="9" t="s">
+      <c r="S15" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="T15" s="9">
+      <c r="T15" s="11">
         <v>2</v>
       </c>
-      <c r="U15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="W15" s="9" t="s">
+      <c r="U15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W15" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="X15" s="9" t="s">
+      <c r="X15" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="Y15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z15" s="9" t="s">
+      <c r="Y15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z15" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AA15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH15" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" s="5" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A16" s="11" t="s">
+      <c r="AA15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH15" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" s="7" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A16" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="10">
         <v>45332</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="M16" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N16" s="8">
+      <c r="M16" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="10">
         <v>33938</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="R16" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="S16" s="11" t="s">
+      <c r="S16" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="T16" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="U16" s="11" t="s">
+      <c r="U16" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="V16" s="11" t="s">
+      <c r="V16" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="W16" s="11" t="s">
+      <c r="W16" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="X16" s="11" t="s">
+      <c r="X16" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="Y16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z16" s="11" t="s">
+      <c r="Y16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z16" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="AA16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB16" s="11" t="s">
+      <c r="AA16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB16" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="AC16" s="11" t="s">
+      <c r="AC16" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="AD16" s="11" t="s">
+      <c r="AD16" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="AE16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG16" s="11" t="s">
+      <c r="AE16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF16" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG16" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="AH16" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" s="5" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A17" s="7" t="s">
+      <c r="AH16" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" s="7" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A17" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="F17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="10">
         <v>43780</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="L17" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="M17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N17" s="7" t="s">
+      <c r="M17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="P17" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="Q17" s="7" t="s">
+      <c r="Q17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="R17" s="7" t="s">
+      <c r="R17" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="S17" s="7" t="s">
+      <c r="S17" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="T17" s="7" t="s">
+      <c r="T17" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="U17" s="7" t="s">
+      <c r="U17" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="V17" s="7" t="s">
+      <c r="V17" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="W17" s="7" t="s">
+      <c r="W17" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="X17" s="7" t="s">
+      <c r="X17" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="Y17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z17" s="7" t="s">
+      <c r="Y17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z17" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AA17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB17" s="7" t="s">
+      <c r="AA17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB17" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="AC17" s="7" t="s">
+      <c r="AC17" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="AD17" s="7" t="s">
+      <c r="AD17" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="AE17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF17" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG17" s="7" t="s">
+      <c r="AE17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG17" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="AH17" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" s="5" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A18" s="9" t="s">
+      <c r="AH17" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" s="7" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A18" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="11">
         <v>344721</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="12">
         <v>45650</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="M18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N18" s="10">
+      <c r="M18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="12">
         <v>35662</v>
       </c>
-      <c r="O18" s="9" t="s">
+      <c r="O18" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="P18" s="9" t="s">
+      <c r="P18" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="Q18" s="9" t="s">
+      <c r="Q18" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="R18" s="9" t="s">
+      <c r="R18" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="S18" s="9" t="s">
+      <c r="S18" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="T18" s="9">
+      <c r="T18" s="11">
         <v>1</v>
       </c>
-      <c r="U18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="W18" s="9" t="s">
+      <c r="U18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W18" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="X18" s="9" t="s">
+      <c r="X18" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="Y18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z18" s="9" t="s">
+      <c r="Y18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z18" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AA18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH18" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" s="5" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A19" s="9" t="s">
+      <c r="AA18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH18" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" s="7" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A19" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="11">
         <v>330291</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="12">
         <v>45660</v>
       </c>
-      <c r="H19" s="9" t="s">
+      <c r="H19" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="9" t="s">
+      <c r="I19" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J19" s="9" t="s">
+      <c r="J19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="9" t="s">
+      <c r="K19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L19" s="9" t="s">
+      <c r="L19" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="M19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N19" s="10">
+      <c r="M19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19" s="12">
         <v>34669</v>
       </c>
-      <c r="O19" s="9" t="s">
+      <c r="O19" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="P19" s="9" t="s">
+      <c r="P19" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="Q19" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="R19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="S19" s="9" t="s">
+      <c r="S19" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="T19" s="9">
+      <c r="T19" s="11">
         <v>2</v>
       </c>
-      <c r="U19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="W19" s="9" t="s">
+      <c r="U19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W19" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="X19" s="9" t="s">
+      <c r="X19" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="Y19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z19" s="9" t="s">
+      <c r="Y19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AA19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG19" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH19" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" s="5" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A20" s="9" t="s">
+      <c r="AA19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH19" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" s="7" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A20" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="11">
         <v>375895</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="12">
         <v>45496</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K20" s="9" t="s">
+      <c r="K20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="M20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N20" s="10">
+      <c r="M20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N20" s="12">
         <v>34684</v>
       </c>
-      <c r="O20" s="9" t="s">
+      <c r="O20" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="P20" s="9" t="s">
+      <c r="P20" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="Q20" s="9" t="s">
+      <c r="Q20" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="R20" s="9" t="s">
+      <c r="R20" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="S20" s="9" t="s">
+      <c r="S20" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="T20" s="9">
+      <c r="T20" s="11">
         <v>2</v>
       </c>
-      <c r="U20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="W20" s="9" t="s">
+      <c r="U20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W20" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="X20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z20" s="9" t="s">
+      <c r="X20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z20" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AA20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG20" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH20" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" s="5" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A21" s="9" t="s">
+      <c r="AA20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG20" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH20" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" s="7" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A21" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="11">
         <v>363702</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="12">
         <v>44969</v>
       </c>
-      <c r="H21" s="9" t="s">
+      <c r="H21" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="9" t="s">
+      <c r="I21" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="9" t="s">
+      <c r="J21" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="9" t="s">
+      <c r="K21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="9" t="s">
+      <c r="L21" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="M21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N21" s="10">
+      <c r="M21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" s="12">
         <v>33899</v>
       </c>
-      <c r="O21" s="9" t="s">
+      <c r="O21" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="P21" s="9" t="s">
+      <c r="P21" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="Q21" s="9" t="s">
+      <c r="Q21" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="R21" s="9" t="s">
+      <c r="R21" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="S21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="T21" s="9">
+      <c r="S21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="T21" s="11">
         <v>1</v>
       </c>
-      <c r="U21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="W21" s="9" t="s">
+      <c r="U21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W21" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="X21" s="9" t="s">
+      <c r="X21" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="Y21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z21" s="9" t="s">
+      <c r="Y21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z21" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="AA21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG21" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH21" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" s="5" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A22" s="9" t="s">
+      <c r="AA21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG21" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH21" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" s="7" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A22" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="11">
         <v>324171</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="12">
         <v>45586</v>
       </c>
-      <c r="H22" s="9" t="s">
+      <c r="H22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="K22" s="9" t="s">
+      <c r="K22" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="M22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N22" s="10">
+      <c r="M22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="12">
         <v>32939</v>
       </c>
-      <c r="O22" s="9" t="s">
+      <c r="O22" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="P22" s="9" t="s">
+      <c r="P22" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="Q22" s="9" t="s">
+      <c r="Q22" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="R22" s="9" t="s">
+      <c r="R22" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="S22" s="9" t="s">
+      <c r="S22" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="T22" s="9">
+      <c r="T22" s="11">
         <v>2</v>
       </c>
-      <c r="U22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="W22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="X22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z22" s="9" t="s">
+      <c r="U22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="W22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="X22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z22" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AA22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AC22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AD22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AE22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG22" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH22" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" s="5" customFormat="1" customHeight="1" spans="1:34">
-      <c r="A23" s="11" t="s">
+      <c r="AA22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH22" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" s="7" customFormat="1" customHeight="1" spans="1:34">
+      <c r="A23" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="F23" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="10">
         <v>45513</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="H23" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I23" s="11" t="s">
+      <c r="I23" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="K23" s="11" t="s">
+      <c r="K23" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="L23" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="M23" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="N23" s="8">
+      <c r="M23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="10">
         <v>33314</v>
       </c>
-      <c r="O23" s="11" t="s">
+      <c r="O23" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="P23" s="11" t="s">
+      <c r="P23" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="Q23" s="11" t="s">
+      <c r="Q23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="R23" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="S23" s="11" t="s">
+      <c r="S23" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="T23" s="11" t="s">
+      <c r="T23" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="U23" s="11" t="s">
+      <c r="U23" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="V23" s="11" t="s">
+      <c r="V23" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="W23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="X23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Y23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z23" s="11" t="s">
+      <c r="W23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="X23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z23" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="AA23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB23" s="11" t="s">
+      <c r="AA23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB23" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC23" s="11" t="s">
+      <c r="AC23" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="AD23" s="11" t="s">
+      <c r="AD23" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="AE23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG23" s="11" t="s">
+      <c r="AE23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG23" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="AH23" s="9" t="s">
+      <c r="AH23" s="11" t="s">
         <v>45</v>
       </c>
     </row>
@@ -7257,1058 +7252,1063 @@
   <sheetPr/>
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.1428571428571" style="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85714285714286" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7142857142857" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.8571428571429" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5714285714286" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.57142857142857" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7142857142857" style="1" customWidth="1"/>
-    <col min="10" max="11" width="9.14285714285714" style="1"/>
-    <col min="12" max="12" width="11.7142857142857" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="20.7142857142857" style="2" customWidth="1"/>
+    <col min="2" max="2" width="40.1428571428571" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.85714285714286" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.7142857142857" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.8571428571429" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.5714285714286" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.57142857142857" style="2" customWidth="1"/>
+    <col min="9" max="9" width="14.7142857142857" style="2" customWidth="1"/>
+    <col min="10" max="11" width="9.14285714285714" style="2"/>
+    <col min="12" max="12" width="11.7142857142857" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9.14285714285714" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" spans="1:7">
-      <c r="A1" s="2">
+    <row r="1" s="4" customFormat="1" spans="1:7">
+      <c r="A1" s="4">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:9">
-      <c r="A3" s="2">
+    <row r="3" s="4" customFormat="1" spans="1:9">
+      <c r="A3" s="4">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
+    <row r="4" s="4" customFormat="1" spans="1:7">
+      <c r="A4" s="4">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" s="2" customFormat="1" spans="1:7">
-      <c r="A6" s="2">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" s="4" customFormat="1" spans="1:7">
+      <c r="A6" s="4">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="4" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="8" s="2" customFormat="1" spans="1:7">
-      <c r="A8" s="2">
+    <row r="8" s="4" customFormat="1" spans="1:7">
+      <c r="A8" s="4">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
+    <row r="9" s="4" customFormat="1" spans="1:9">
+      <c r="A9" s="4">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="4" t="s">
         <v>357</v>
       </c>
+      <c r="I9" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="H10" s="2"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="H11" s="2"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" s="2" customFormat="1" spans="1:7">
-      <c r="A13" s="2">
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" s="4" customFormat="1" spans="1:7">
+      <c r="A13" s="4">
         <v>13</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="4" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:7">
-      <c r="A17" s="2">
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" s="4" customFormat="1" spans="1:7">
+      <c r="A17" s="4">
         <v>17</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="4" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>19</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="H19" s="2"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="1">
+    <row r="21" s="4" customFormat="1" spans="1:7">
+      <c r="A21" s="4">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="4" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1">
+    <row r="22" s="4" customFormat="1" spans="1:9">
+      <c r="A22" s="4">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>384</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="4" t="s">
         <v>344</v>
       </c>
+      <c r="I22" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>23</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>385</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="H23" s="2"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>24</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:7">
-      <c r="A25" s="2">
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" s="4" customFormat="1" spans="1:7">
+      <c r="A25" s="4">
         <v>25</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="4" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="2">
+      <c r="A26" s="4">
         <v>26</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="H26" s="2"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="2">
+      <c r="A28" s="4">
         <v>28</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="2">
+      <c r="A29" s="4">
         <v>29</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G29" s="4" t="s">
         <v>398</v>
       </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="2">
+      <c r="A30" s="4">
         <v>30</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>399</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="G30" s="4" t="s">
         <v>400</v>
       </c>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" s="2" customFormat="1" spans="1:7">
-      <c r="A31" s="2">
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" s="4" customFormat="1" spans="1:7">
+      <c r="A31" s="4">
         <v>31</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="G31" s="4" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="2">
+      <c r="A32" s="4">
         <v>32</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" s="2" customFormat="1" spans="1:7">
-      <c r="A33" s="2">
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" s="4" customFormat="1" spans="1:7">
+      <c r="A33" s="4">
         <v>33</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="4" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="34" s="2" customFormat="1" spans="1:7">
-      <c r="A34" s="2">
+    <row r="34" s="4" customFormat="1" spans="1:7">
+      <c r="A34" s="4">
         <v>34</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="G34" s="4" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="2">
+      <c r="A35" s="4">
         <v>35</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" s="2" customFormat="1" spans="1:7">
-      <c r="A36" s="2">
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" s="4" customFormat="1" spans="1:7">
+      <c r="A36" s="4">
         <v>36</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>410</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="G36" s="4" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="2">
+      <c r="A37" s="4">
         <v>37</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>412</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="G37" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="H37" s="2"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>38</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="2" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2">
+      <c r="A39" s="4">
         <v>39</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="G39" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="H39" s="2"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="2">
+      <c r="A40" s="4">
         <v>40</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="G40" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="H40" s="2"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>41</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="2" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="2">
+      <c r="A42" s="4">
         <v>42</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="G42" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="H42" s="2"/>
+      <c r="H42" s="4"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="2">
+      <c r="A43" s="4">
         <v>43</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G43" s="4" t="s">
         <v>427</v>
       </c>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="2">
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" s="4" customFormat="1" spans="1:7">
+      <c r="A44" s="4">
         <v>44</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8339,127 +8339,68 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="46.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="26.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1">
-        <f>1+A1</f>
+      <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1">
-        <f t="shared" ref="A3:A13" si="0">1+A2</f>
+      <c r="B2" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:2">
+      <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>351</v>
+      <c r="B3" s="3" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1">
-        <f t="shared" si="0"/>
+      <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>355</v>
+      <c r="B4" s="3" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="1">
-        <f t="shared" si="0"/>
+      <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>366</v>
+      <c r="B5" s="3" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
+      <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1">
-        <f>1+A10</f>
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1">
-        <f>1+A11</f>
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1"/>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
